--- a/CS Project/17APCS1-Group01-Project Report.xlsx
+++ b/CS Project/17APCS1-Group01-Project Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Google Drive/G-Dropbox/HDTH/APCS-CS162-17APCS1-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/1751027_student_hcmus_edu_vn/Documents/APCS/Computer Science/Project Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_87B98B1C6A80A014E715395B68AAA43119A82B0F" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{521DADA1-609A-4A05-A278-58CF8E429663}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13270" windowHeight="5330" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -49,9 +50,6 @@
     <t>Features</t>
   </si>
   <si>
-    <t>Student ID1</t>
-  </si>
-  <si>
     <t>Student ID2</t>
   </si>
   <si>
@@ -191,13 +189,28 @@
   </si>
   <si>
     <t>Don't mention features in the sheet because we have sheet "Features"</t>
+  </si>
+  <si>
+    <t>Huỳnh Thanh Vy</t>
+  </si>
+  <si>
+    <t>CS161-Presence.csv</t>
+  </si>
+  <si>
+    <t>Courses-Schedule.csv</t>
+  </si>
+  <si>
+    <t>Rewrite new password for staff to Academic-staff.csv</t>
+  </si>
+  <si>
+    <t>Rewrite new password for lecturer to Lecturer.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,6 +316,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -570,12 +586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
@@ -583,7 +601,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -597,15 +615,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="13">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2">
+        <v>1751027</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="13">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -613,7 +635,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="13">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -621,7 +643,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="13">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -629,7 +651,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="13">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -637,7 +659,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="13">
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
@@ -648,329 +670,347 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="49.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="3">
+        <v>1751027</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -979,45 +1019,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="44.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3">
+        <v>1751027</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
       <c r="F2" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="6" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="6" t="s">
-        <v>53</v>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/CS Project/17APCS1-Group01-Project Report.xlsx
+++ b/CS Project/17APCS1-Group01-Project Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/1751027_student_hcmus_edu_vn/Documents/APCS/Computer Science/Project Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vy Huynh\Documents\GitHub\CS-Project\CS Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_87B98B1C6A80A014E715395B68AAA43119A82B0F" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{521DADA1-609A-4A05-A278-58CF8E429663}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCADCAD-FEE9-4C9A-B5B3-DD5DA8629E63}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13270" windowHeight="5330" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1022,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
